--- a/doc/exp.xlsx
+++ b/doc/exp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/29bb5302398a20f0/projs/MaximumDefectiveClique/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{E655FE43-2003-489A-8CC3-0DD3A3B4B5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{220BD18E-02F6-47C5-8CAB-F4621AB0AA3E}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{E655FE43-2003-489A-8CC3-0DD3A3B4B5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F756115-22C8-41C3-998F-CBF7A5FF84AF}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-6195" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="exp1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="70">
   <si>
     <t>dataset</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,6 +253,10 @@
     <t>twitter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -338,9 +342,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -348,6 +349,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -639,34 +643,34 @@
   <dimension ref="A1:I241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D194" sqref="D194:D197"/>
+      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B238" sqref="B238:B241"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="14" style="9" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="20.875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="14" style="7" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="7" customWidth="1"/>
     <col min="5" max="5" width="9" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.21875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="18.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>66</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -685,7 +689,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
@@ -714,7 +718,7 @@
         <v>11376</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
@@ -743,7 +747,7 @@
         <v>12474</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
@@ -772,7 +776,7 @@
         <v>12907</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
@@ -801,7 +805,7 @@
         <v>15723</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
@@ -830,7 +834,7 @@
         <v>10891</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
@@ -859,7 +863,7 @@
         <v>11642</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
@@ -888,7 +892,7 @@
         <v>11696</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
@@ -917,8 +921,8 @@
         <v>14222</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="8">
@@ -946,8 +950,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="8">
@@ -975,8 +979,8 @@
         <v>289</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="8">
@@ -1004,8 +1008,8 @@
         <v>295</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="8">
@@ -1033,8 +1037,8 @@
         <v>322</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="8">
@@ -1062,8 +1066,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="8">
@@ -1091,8 +1095,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="8">
@@ -1120,8 +1124,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="8">
@@ -1149,8 +1153,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="8">
@@ -1178,8 +1182,8 @@
         <v>737</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="8">
@@ -1207,8 +1211,8 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="8">
@@ -1236,8 +1240,8 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="8">
@@ -1265,8 +1269,8 @@
         <v>12025</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="8">
@@ -1294,8 +1298,8 @@
         <v>510</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="8">
@@ -1323,8 +1327,8 @@
         <v>599</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B24" s="8">
@@ -1352,8 +1356,8 @@
         <v>617</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="8">
@@ -1381,8 +1385,8 @@
         <v>649</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="8">
@@ -1410,8 +1414,8 @@
         <v>566</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="8">
@@ -1439,8 +1443,8 @@
         <v>572</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="8">
@@ -1468,8 +1472,8 @@
         <v>642</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="8">
@@ -1497,7 +1501,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
         <v>11</v>
       </c>
@@ -1526,7 +1530,7 @@
         <v>2645</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>11</v>
       </c>
@@ -1555,7 +1559,7 @@
         <v>5812</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
         <v>11</v>
       </c>
@@ -1584,7 +1588,7 @@
         <v>5284</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>11</v>
       </c>
@@ -1613,8 +1617,8 @@
         <v>7284631</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B34" s="8">
@@ -1642,8 +1646,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B35" s="8">
@@ -1671,8 +1675,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B36" s="8">
@@ -1700,8 +1704,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B37" s="8">
@@ -1729,8 +1733,8 @@
         <v>195</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B38" s="8">
@@ -1758,8 +1762,8 @@
         <v>138</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B39" s="8">
@@ -1787,8 +1791,8 @@
         <v>143</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B40" s="8">
@@ -1816,8 +1820,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B41" s="8">
@@ -1845,8 +1849,8 @@
         <v>233</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B42" s="8">
@@ -1874,8 +1878,8 @@
         <v>412</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B43" s="8">
@@ -1903,8 +1907,8 @@
         <v>421</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B44" s="8">
@@ -1932,8 +1936,8 @@
         <v>449</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B45" s="8">
@@ -1961,8 +1965,8 @@
         <v>439</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B46" s="8">
@@ -1990,8 +1994,8 @@
         <v>254</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B47" s="8">
@@ -2019,8 +2023,8 @@
         <v>257</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B48" s="8">
@@ -2048,8 +2052,8 @@
         <v>258</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B49" s="8">
@@ -2077,8 +2081,8 @@
         <v>264</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B50" s="8">
@@ -2106,8 +2110,8 @@
         <v>342</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B51" s="8">
@@ -2135,8 +2139,8 @@
         <v>324</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B52" s="8">
@@ -2164,8 +2168,8 @@
         <v>408</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B53" s="8">
@@ -2193,8 +2197,8 @@
         <v>424</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B54" s="8">
@@ -2222,8 +2226,8 @@
         <v>947</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B55" s="8">
@@ -2251,8 +2255,8 @@
         <v>882</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B56" s="8">
@@ -2280,8 +2284,8 @@
         <v>980</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B57" s="8">
@@ -2309,7 +2313,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
         <v>18</v>
       </c>
@@ -2338,7 +2342,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
         <v>18</v>
       </c>
@@ -2367,7 +2371,7 @@
         <v>5922</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
         <v>18</v>
       </c>
@@ -2396,7 +2400,7 @@
         <v>5099</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
         <v>18</v>
       </c>
@@ -2425,8 +2429,8 @@
         <v>9655941</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B62" s="8">
@@ -2454,8 +2458,8 @@
         <v>230</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B63" s="8">
@@ -2483,8 +2487,8 @@
         <v>218</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B64" s="8">
@@ -2512,8 +2516,8 @@
         <v>216</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B65" s="8">
@@ -2541,8 +2545,8 @@
         <v>269</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B66" s="8">
@@ -2570,8 +2574,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B67" s="8">
@@ -2599,8 +2603,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B68" s="8">
@@ -2628,8 +2632,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B69" s="8">
@@ -2657,8 +2661,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B70" s="8">
@@ -2686,8 +2690,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B71" s="8">
@@ -2715,8 +2719,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B72" s="8">
@@ -2744,8 +2748,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B73" s="8">
@@ -2773,8 +2777,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B74" s="8">
@@ -2802,8 +2806,8 @@
         <v>627</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B75" s="8">
@@ -2831,8 +2835,8 @@
         <v>649</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B76" s="8">
@@ -2860,8 +2864,8 @@
         <v>599</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B77" s="8">
@@ -2889,8 +2893,8 @@
         <v>682</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B78" s="8">
@@ -2918,8 +2922,8 @@
         <v>618</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B79" s="8">
@@ -2947,8 +2951,8 @@
         <v>628</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B80" s="8">
@@ -2976,8 +2980,8 @@
         <v>686</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B81" s="8">
@@ -3005,8 +3009,8 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B82" s="8">
@@ -3034,8 +3038,8 @@
         <v>447</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B83" s="8">
@@ -3063,8 +3067,8 @@
         <v>362</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B84" s="8">
@@ -3092,8 +3096,8 @@
         <v>360</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B85" s="8">
@@ -3121,8 +3125,8 @@
         <v>465</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B86" s="8">
@@ -3150,8 +3154,8 @@
         <v>322</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B87" s="8">
@@ -3179,8 +3183,8 @@
         <v>344</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B88" s="8">
@@ -3208,8 +3212,8 @@
         <v>309</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B89" s="8">
@@ -3237,8 +3241,8 @@
         <v>393</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B90" s="8">
@@ -3266,8 +3270,8 @@
         <v>138</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B91" s="8">
@@ -3295,8 +3299,8 @@
         <v>143</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B92" s="8">
@@ -3324,8 +3328,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B93" s="8">
@@ -3353,8 +3357,8 @@
         <v>233</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B94" s="8">
@@ -3382,8 +3386,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B95" s="8">
@@ -3411,8 +3415,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B96" s="8">
@@ -3440,8 +3444,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B97" s="8">
@@ -3469,8 +3473,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B98" s="8">
@@ -3498,8 +3502,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B99" s="8">
@@ -3527,8 +3531,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B100" s="8">
@@ -3556,8 +3560,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B101" s="8">
@@ -3585,8 +3589,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B102" s="8">
@@ -3614,8 +3618,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B103" s="8">
@@ -3643,8 +3647,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B104" s="8">
@@ -3672,8 +3676,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B105" s="8">
@@ -3701,8 +3705,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B106" s="8">
@@ -3730,8 +3734,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B107" s="8">
@@ -3759,8 +3763,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B108" s="8">
@@ -3788,8 +3792,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="5" t="s">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B109" s="8">
@@ -3817,8 +3821,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="5" t="s">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B110" s="8">
@@ -3846,8 +3850,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="s">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B111" s="8">
@@ -3875,8 +3879,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="5" t="s">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B112" s="8">
@@ -3904,8 +3908,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B113" s="8">
@@ -3933,8 +3937,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="5" t="s">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B114" s="8">
@@ -3962,8 +3966,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="s">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B115" s="8">
@@ -3991,8 +3995,8 @@
         <v>132</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="5" t="s">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B116" s="8">
@@ -4020,8 +4024,8 @@
         <v>149</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="s">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B117" s="8">
@@ -4049,8 +4053,8 @@
         <v>341</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B118" s="8">
@@ -4078,8 +4082,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="s">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B119" s="8">
@@ -4107,8 +4111,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="5" t="s">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B120" s="8">
@@ -4136,8 +4140,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="s">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B121" s="8">
@@ -4165,8 +4169,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="5" t="s">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B122" s="8">
@@ -4194,8 +4198,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="5" t="s">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B123" s="8">
@@ -4223,8 +4227,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="5" t="s">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B124" s="8">
@@ -4252,8 +4256,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="5" t="s">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A125" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B125" s="8">
@@ -4281,8 +4285,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="5" t="s">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B126" s="8">
@@ -4310,8 +4314,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="5" t="s">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B127" s="8">
@@ -4339,8 +4343,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="5" t="s">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B128" s="8">
@@ -4368,8 +4372,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="5" t="s">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B129" s="8">
@@ -4397,7 +4401,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
         <v>38</v>
       </c>
@@ -4426,7 +4430,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="11" t="s">
         <v>38</v>
       </c>
@@ -4455,7 +4459,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="11" t="s">
         <v>38</v>
       </c>
@@ -4484,7 +4488,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="s">
         <v>38</v>
       </c>
@@ -4513,8 +4517,8 @@
         <v>536</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="5" t="s">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B134" s="8">
@@ -4542,8 +4546,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="5" t="s">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A135" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B135" s="8">
@@ -4571,8 +4575,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="5" t="s">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A136" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B136" s="8">
@@ -4600,8 +4604,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="5" t="s">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A137" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B137" s="8">
@@ -4629,8 +4633,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="5" t="s">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A138" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B138" s="8">
@@ -4658,8 +4662,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="5" t="s">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A139" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B139" s="8">
@@ -4687,8 +4691,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" s="5" t="s">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A140" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B140" s="8">
@@ -4716,8 +4720,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" s="5" t="s">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A141" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B141" s="8">
@@ -4745,8 +4749,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" s="5" t="s">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A142" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B142" s="8">
@@ -4774,8 +4778,8 @@
         <v>3367213</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="5" t="s">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A143" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B143" s="8">
@@ -4791,8 +4795,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="5" t="s">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A144" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B144" s="8">
@@ -4808,8 +4812,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="5" t="s">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A145" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B145" s="8">
@@ -4825,8 +4829,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="5" t="s">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A146" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B146" s="8">
@@ -4854,8 +4858,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="5" t="s">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A147" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B147" s="8">
@@ -4883,8 +4887,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="5" t="s">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A148" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B148" s="8">
@@ -4912,8 +4916,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="5" t="s">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A149" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B149" s="8">
@@ -4941,8 +4945,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="5" t="s">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A150" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B150" s="8">
@@ -4970,8 +4974,8 @@
         <v>1647989</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="5" t="s">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A151" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B151" s="8">
@@ -4987,8 +4991,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="5" t="s">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A152" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B152" s="8">
@@ -5004,8 +5008,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="5" t="s">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A153" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B153" s="8">
@@ -5021,8 +5025,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="5" t="s">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A154" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B154" s="8">
@@ -5050,8 +5054,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="5" t="s">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A155" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B155" s="8">
@@ -5079,8 +5083,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156" s="5" t="s">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A156" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B156" s="8">
@@ -5108,8 +5112,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" s="5" t="s">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A157" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B157" s="8">
@@ -5137,8 +5141,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" s="5" t="s">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A158" s="9" t="s">
         <v>45</v>
       </c>
       <c r="B158" s="8">
@@ -5166,8 +5170,8 @@
         <v>39789</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A159" s="5" t="s">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A159" s="9" t="s">
         <v>45</v>
       </c>
       <c r="B159" s="8">
@@ -5195,8 +5199,8 @@
         <v>131054</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A160" s="5" t="s">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A160" s="9" t="s">
         <v>45</v>
       </c>
       <c r="B160" s="8">
@@ -5224,8 +5228,8 @@
         <v>46666</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" s="5" t="s">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A161" s="9" t="s">
         <v>45</v>
       </c>
       <c r="B161" s="8">
@@ -5253,8 +5257,8 @@
         <v>120252</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A162" s="5" t="s">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A162" s="9" t="s">
         <v>46</v>
       </c>
       <c r="B162" s="8">
@@ -5282,8 +5286,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A163" s="5" t="s">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A163" s="9" t="s">
         <v>46</v>
       </c>
       <c r="B163" s="8">
@@ -5311,8 +5315,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A164" s="5" t="s">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A164" s="9" t="s">
         <v>46</v>
       </c>
       <c r="B164" s="8">
@@ -5340,8 +5344,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165" s="5" t="s">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A165" s="9" t="s">
         <v>46</v>
       </c>
       <c r="B165" s="8">
@@ -5369,8 +5373,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A166" s="5" t="s">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A166" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B166" s="8">
@@ -5398,8 +5402,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A167" s="5" t="s">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A167" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B167" s="8">
@@ -5427,8 +5431,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A168" s="5" t="s">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A168" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B168" s="8">
@@ -5456,8 +5460,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A169" s="5" t="s">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A169" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B169" s="8">
@@ -5485,8 +5489,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A170" s="5" t="s">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A170" s="9" t="s">
         <v>48</v>
       </c>
       <c r="B170" s="8">
@@ -5514,8 +5518,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A171" s="5" t="s">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A171" s="9" t="s">
         <v>48</v>
       </c>
       <c r="B171" s="8">
@@ -5543,8 +5547,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A172" s="5" t="s">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A172" s="9" t="s">
         <v>48</v>
       </c>
       <c r="B172" s="8">
@@ -5572,8 +5576,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A173" s="5" t="s">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A173" s="9" t="s">
         <v>48</v>
       </c>
       <c r="B173" s="8">
@@ -5601,8 +5605,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A174" s="5" t="s">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A174" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B174" s="8"/>
@@ -5612,8 +5616,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A175" s="5" t="s">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A175" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B175" s="8"/>
@@ -5623,8 +5627,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A176" s="5" t="s">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A176" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B176" s="8"/>
@@ -5634,8 +5638,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A177" s="5" t="s">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A177" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B177" s="8"/>
@@ -5645,8 +5649,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A178" s="5" t="s">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A178" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B178" s="8">
@@ -5674,8 +5678,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A179" s="5" t="s">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A179" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B179" s="8">
@@ -5703,8 +5707,8 @@
         <v>673</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A180" s="5" t="s">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A180" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B180" s="8">
@@ -5732,8 +5736,8 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A181" s="5" t="s">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A181" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B181" s="8">
@@ -5761,8 +5765,8 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" s="5" t="s">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A182" s="9" t="s">
         <v>51</v>
       </c>
       <c r="B182" s="8">
@@ -5790,8 +5794,8 @@
         <v>1054938</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A183" s="5" t="s">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A183" s="9" t="s">
         <v>51</v>
       </c>
       <c r="B183" s="8">
@@ -5807,8 +5811,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A184" s="5" t="s">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A184" s="9" t="s">
         <v>51</v>
       </c>
       <c r="B184" s="8">
@@ -5824,8 +5828,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A185" s="5" t="s">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A185" s="9" t="s">
         <v>51</v>
       </c>
       <c r="B185" s="8">
@@ -5841,8 +5845,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A186" s="5" t="s">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A186" s="9" t="s">
         <v>52</v>
       </c>
       <c r="B186" s="8">
@@ -5870,8 +5874,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A187" s="5" t="s">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A187" s="9" t="s">
         <v>52</v>
       </c>
       <c r="B187" s="8">
@@ -5899,8 +5903,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A188" s="5" t="s">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A188" s="9" t="s">
         <v>52</v>
       </c>
       <c r="B188" s="8">
@@ -5928,8 +5932,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A189" s="5" t="s">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A189" s="9" t="s">
         <v>52</v>
       </c>
       <c r="B189" s="8">
@@ -5957,8 +5961,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A190" s="5" t="s">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A190" s="9" t="s">
         <v>53</v>
       </c>
       <c r="B190" s="8">
@@ -5986,8 +5990,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A191" s="5" t="s">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A191" s="9" t="s">
         <v>53</v>
       </c>
       <c r="B191" s="8">
@@ -6015,8 +6019,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A192" s="5" t="s">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A192" s="9" t="s">
         <v>53</v>
       </c>
       <c r="B192" s="8">
@@ -6044,8 +6048,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A193" s="5" t="s">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A193" s="9" t="s">
         <v>53</v>
       </c>
       <c r="B193" s="8">
@@ -6073,8 +6077,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A194" s="5" t="s">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A194" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B194" s="8">
@@ -6102,8 +6106,8 @@
         <v>4874</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A195" s="5" t="s">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A195" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B195" s="8">
@@ -6131,8 +6135,8 @@
         <v>22539</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A196" s="5" t="s">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A196" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B196" s="8">
@@ -6160,8 +6164,8 @@
         <v>81445</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A197" s="5" t="s">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A197" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B197" s="8">
@@ -6189,7 +6193,7 @@
         <v>2610195</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" s="10" t="s">
         <v>55</v>
       </c>
@@ -6218,7 +6222,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" s="11" t="s">
         <v>55</v>
       </c>
@@ -6247,7 +6251,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" s="11" t="s">
         <v>55</v>
       </c>
@@ -6276,7 +6280,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" s="11" t="s">
         <v>55</v>
       </c>
@@ -6305,8 +6309,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A202" s="5" t="s">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A202" s="9" t="s">
         <v>56</v>
       </c>
       <c r="B202" s="8">
@@ -6334,8 +6338,8 @@
         <v>7006</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A203" s="5" t="s">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A203" s="9" t="s">
         <v>56</v>
       </c>
       <c r="B203" s="8">
@@ -6363,8 +6367,8 @@
         <v>107357</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A204" s="5" t="s">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A204" s="9" t="s">
         <v>56</v>
       </c>
       <c r="B204" s="8">
@@ -6392,8 +6396,8 @@
         <v>488134</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A205" s="5" t="s">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A205" s="9" t="s">
         <v>56</v>
       </c>
       <c r="B205" s="8">
@@ -6409,7 +6413,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" s="10" t="s">
         <v>57</v>
       </c>
@@ -6438,7 +6442,7 @@
         <v>78518</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="11" t="s">
         <v>57</v>
       </c>
@@ -6467,7 +6471,7 @@
         <v>132521</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" s="11" t="s">
         <v>57</v>
       </c>
@@ -6496,7 +6500,7 @@
         <v>122403</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" s="11" t="s">
         <v>57</v>
       </c>
@@ -6525,8 +6529,8 @@
         <v>221579</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A210" s="5" t="s">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A210" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B210" s="8">
@@ -6554,8 +6558,8 @@
         <v>4920</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A211" s="5" t="s">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A211" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B211" s="8">
@@ -6583,8 +6587,8 @@
         <v>5468</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A212" s="5" t="s">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A212" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B212" s="8">
@@ -6612,8 +6616,8 @@
         <v>6007</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A213" s="5" t="s">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A213" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B213" s="8">
@@ -6641,8 +6645,8 @@
         <v>8293</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A214" s="5" t="s">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A214" s="9" t="s">
         <v>59</v>
       </c>
       <c r="B214" s="8">
@@ -6670,8 +6674,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A215" s="5" t="s">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A215" s="9" t="s">
         <v>59</v>
       </c>
       <c r="B215" s="8">
@@ -6699,8 +6703,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A216" s="5" t="s">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A216" s="9" t="s">
         <v>59</v>
       </c>
       <c r="B216" s="8">
@@ -6728,8 +6732,8 @@
         <v>310</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A217" s="5" t="s">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A217" s="9" t="s">
         <v>59</v>
       </c>
       <c r="B217" s="8">
@@ -6757,8 +6761,8 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A218" s="5" t="s">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A218" s="9" t="s">
         <v>60</v>
       </c>
       <c r="B218" s="8">
@@ -6786,8 +6790,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A219" s="5" t="s">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A219" s="9" t="s">
         <v>60</v>
       </c>
       <c r="B219" s="8">
@@ -6815,8 +6819,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A220" s="5" t="s">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A220" s="9" t="s">
         <v>60</v>
       </c>
       <c r="B220" s="8">
@@ -6844,8 +6848,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A221" s="5" t="s">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A221" s="9" t="s">
         <v>60</v>
       </c>
       <c r="B221" s="8">
@@ -6861,8 +6865,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A222" s="5" t="s">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A222" s="9" t="s">
         <v>61</v>
       </c>
       <c r="B222" s="8">
@@ -6890,8 +6894,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A223" s="5" t="s">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A223" s="9" t="s">
         <v>61</v>
       </c>
       <c r="B223" s="8">
@@ -6919,8 +6923,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A224" s="5" t="s">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A224" s="9" t="s">
         <v>61</v>
       </c>
       <c r="B224" s="8">
@@ -6948,8 +6952,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A225" s="5" t="s">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A225" s="9" t="s">
         <v>61</v>
       </c>
       <c r="B225" s="8">
@@ -6977,8 +6981,8 @@
         <v>2689</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A226" s="5" t="s">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A226" s="9" t="s">
         <v>62</v>
       </c>
       <c r="B226" s="8">
@@ -7006,8 +7010,8 @@
         <v>448</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A227" s="5" t="s">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A227" s="9" t="s">
         <v>62</v>
       </c>
       <c r="B227" s="8">
@@ -7035,8 +7039,8 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A228" s="5" t="s">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A228" s="9" t="s">
         <v>62</v>
       </c>
       <c r="B228" s="8">
@@ -7064,8 +7068,8 @@
         <v>3395</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A229" s="5" t="s">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A229" s="9" t="s">
         <v>62</v>
       </c>
       <c r="B229" s="8">
@@ -7093,8 +7097,8 @@
         <v>26733</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A230" s="5" t="s">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A230" s="9" t="s">
         <v>63</v>
       </c>
       <c r="B230" s="8">
@@ -7122,8 +7126,8 @@
         <v>561</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A231" s="5" t="s">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A231" s="9" t="s">
         <v>63</v>
       </c>
       <c r="B231" s="8">
@@ -7151,8 +7155,8 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A232" s="5" t="s">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A232" s="9" t="s">
         <v>63</v>
       </c>
       <c r="B232" s="8">
@@ -7180,8 +7184,8 @@
         <v>2832</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A233" s="5" t="s">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A233" s="9" t="s">
         <v>63</v>
       </c>
       <c r="B233" s="8">
@@ -7209,7 +7213,7 @@
         <v>52084</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" s="10" t="s">
         <v>67</v>
       </c>
@@ -7238,7 +7242,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" s="11" t="s">
         <v>67</v>
       </c>
@@ -7267,7 +7271,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" s="11" t="s">
         <v>67</v>
       </c>
@@ -7296,7 +7300,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" s="11" t="s">
         <v>67</v>
       </c>
@@ -7325,19 +7329,21 @@
         <v>191</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A238" s="5" t="s">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A238" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B238" s="8"/>
+      <c r="B238" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="C238" s="8"/>
       <c r="D238" s="8"/>
       <c r="E238" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A239" s="5"/>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A239" s="11"/>
       <c r="B239" s="8"/>
       <c r="C239" s="8"/>
       <c r="D239" s="8"/>
@@ -7345,8 +7351,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A240" s="5"/>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A240" s="11"/>
       <c r="B240" s="8"/>
       <c r="C240" s="8"/>
       <c r="D240" s="8"/>
@@ -7354,8 +7360,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" s="5"/>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A241" s="11"/>
       <c r="B241" s="8"/>
       <c r="C241" s="8"/>
       <c r="D241" s="8"/>
@@ -7365,6 +7371,234 @@
     </row>
   </sheetData>
   <mergeCells count="240">
+    <mergeCell ref="A238:A241"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="A134:A137"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="A142:A145"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="A110:A113"/>
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="A170:A173"/>
+    <mergeCell ref="A174:A177"/>
+    <mergeCell ref="A178:A181"/>
+    <mergeCell ref="A182:A185"/>
+    <mergeCell ref="A186:A189"/>
+    <mergeCell ref="A190:A193"/>
+    <mergeCell ref="A146:A149"/>
+    <mergeCell ref="A150:A153"/>
+    <mergeCell ref="A154:A157"/>
+    <mergeCell ref="A158:A161"/>
+    <mergeCell ref="A162:A165"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="A218:A221"/>
+    <mergeCell ref="A222:A225"/>
+    <mergeCell ref="A226:A229"/>
+    <mergeCell ref="A230:A233"/>
+    <mergeCell ref="A234:A237"/>
+    <mergeCell ref="A194:A197"/>
+    <mergeCell ref="A198:A201"/>
+    <mergeCell ref="A202:A205"/>
+    <mergeCell ref="A206:A209"/>
+    <mergeCell ref="A210:A213"/>
+    <mergeCell ref="A214:A217"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="D58:D61"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="D62:D65"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="D74:D77"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="D78:D81"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="D66:D69"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="D90:D93"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="D94:D97"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="D86:D89"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="D106:D109"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="D110:D113"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="D98:D101"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="D102:D105"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="B126:B129"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="D126:D129"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="D114:D117"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="D118:D121"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="C138:C141"/>
+    <mergeCell ref="D138:D141"/>
+    <mergeCell ref="B142:B145"/>
+    <mergeCell ref="C142:C145"/>
+    <mergeCell ref="D142:D145"/>
+    <mergeCell ref="B130:B133"/>
+    <mergeCell ref="C130:C133"/>
+    <mergeCell ref="D130:D133"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="C134:C137"/>
+    <mergeCell ref="D134:D137"/>
+    <mergeCell ref="B154:B157"/>
+    <mergeCell ref="C154:C157"/>
+    <mergeCell ref="D154:D157"/>
+    <mergeCell ref="B158:B161"/>
+    <mergeCell ref="C158:C161"/>
+    <mergeCell ref="D158:D161"/>
+    <mergeCell ref="B146:B149"/>
+    <mergeCell ref="C146:C149"/>
+    <mergeCell ref="D146:D149"/>
+    <mergeCell ref="B150:B153"/>
+    <mergeCell ref="C150:C153"/>
+    <mergeCell ref="D150:D153"/>
+    <mergeCell ref="B170:B173"/>
+    <mergeCell ref="C170:C173"/>
+    <mergeCell ref="D170:D173"/>
+    <mergeCell ref="B174:B177"/>
+    <mergeCell ref="C174:C177"/>
+    <mergeCell ref="D174:D177"/>
+    <mergeCell ref="B162:B165"/>
+    <mergeCell ref="C162:C165"/>
+    <mergeCell ref="D162:D165"/>
+    <mergeCell ref="B166:B169"/>
+    <mergeCell ref="C166:C169"/>
+    <mergeCell ref="D166:D169"/>
+    <mergeCell ref="B186:B189"/>
+    <mergeCell ref="C186:C189"/>
+    <mergeCell ref="D186:D189"/>
+    <mergeCell ref="B190:B193"/>
+    <mergeCell ref="C190:C193"/>
+    <mergeCell ref="D190:D193"/>
+    <mergeCell ref="B178:B181"/>
+    <mergeCell ref="C178:C181"/>
+    <mergeCell ref="D178:D181"/>
+    <mergeCell ref="B182:B185"/>
+    <mergeCell ref="C182:C185"/>
+    <mergeCell ref="D182:D185"/>
+    <mergeCell ref="B202:B205"/>
+    <mergeCell ref="C202:C205"/>
+    <mergeCell ref="D202:D205"/>
+    <mergeCell ref="B206:B209"/>
+    <mergeCell ref="C206:C209"/>
+    <mergeCell ref="D206:D209"/>
+    <mergeCell ref="B194:B197"/>
+    <mergeCell ref="C194:C197"/>
+    <mergeCell ref="D194:D197"/>
+    <mergeCell ref="B198:B201"/>
+    <mergeCell ref="C198:C201"/>
+    <mergeCell ref="D198:D201"/>
+    <mergeCell ref="B218:B221"/>
+    <mergeCell ref="C218:C221"/>
+    <mergeCell ref="D218:D221"/>
+    <mergeCell ref="B222:B225"/>
+    <mergeCell ref="C222:C225"/>
+    <mergeCell ref="D222:D225"/>
+    <mergeCell ref="B210:B213"/>
+    <mergeCell ref="C210:C213"/>
+    <mergeCell ref="D210:D213"/>
+    <mergeCell ref="B214:B217"/>
+    <mergeCell ref="C214:C217"/>
+    <mergeCell ref="D214:D217"/>
     <mergeCell ref="B234:B237"/>
     <mergeCell ref="C234:C237"/>
     <mergeCell ref="D234:D237"/>
@@ -7377,234 +7611,6 @@
     <mergeCell ref="B230:B233"/>
     <mergeCell ref="C230:C233"/>
     <mergeCell ref="D230:D233"/>
-    <mergeCell ref="B218:B221"/>
-    <mergeCell ref="C218:C221"/>
-    <mergeCell ref="D218:D221"/>
-    <mergeCell ref="B222:B225"/>
-    <mergeCell ref="C222:C225"/>
-    <mergeCell ref="D222:D225"/>
-    <mergeCell ref="B210:B213"/>
-    <mergeCell ref="C210:C213"/>
-    <mergeCell ref="D210:D213"/>
-    <mergeCell ref="B214:B217"/>
-    <mergeCell ref="C214:C217"/>
-    <mergeCell ref="D214:D217"/>
-    <mergeCell ref="B202:B205"/>
-    <mergeCell ref="C202:C205"/>
-    <mergeCell ref="D202:D205"/>
-    <mergeCell ref="B206:B209"/>
-    <mergeCell ref="C206:C209"/>
-    <mergeCell ref="D206:D209"/>
-    <mergeCell ref="B194:B197"/>
-    <mergeCell ref="C194:C197"/>
-    <mergeCell ref="D194:D197"/>
-    <mergeCell ref="B198:B201"/>
-    <mergeCell ref="C198:C201"/>
-    <mergeCell ref="D198:D201"/>
-    <mergeCell ref="B186:B189"/>
-    <mergeCell ref="C186:C189"/>
-    <mergeCell ref="D186:D189"/>
-    <mergeCell ref="B190:B193"/>
-    <mergeCell ref="C190:C193"/>
-    <mergeCell ref="D190:D193"/>
-    <mergeCell ref="B178:B181"/>
-    <mergeCell ref="C178:C181"/>
-    <mergeCell ref="D178:D181"/>
-    <mergeCell ref="B182:B185"/>
-    <mergeCell ref="C182:C185"/>
-    <mergeCell ref="D182:D185"/>
-    <mergeCell ref="B170:B173"/>
-    <mergeCell ref="C170:C173"/>
-    <mergeCell ref="D170:D173"/>
-    <mergeCell ref="B174:B177"/>
-    <mergeCell ref="C174:C177"/>
-    <mergeCell ref="D174:D177"/>
-    <mergeCell ref="B162:B165"/>
-    <mergeCell ref="C162:C165"/>
-    <mergeCell ref="D162:D165"/>
-    <mergeCell ref="B166:B169"/>
-    <mergeCell ref="C166:C169"/>
-    <mergeCell ref="D166:D169"/>
-    <mergeCell ref="B154:B157"/>
-    <mergeCell ref="C154:C157"/>
-    <mergeCell ref="D154:D157"/>
-    <mergeCell ref="B158:B161"/>
-    <mergeCell ref="C158:C161"/>
-    <mergeCell ref="D158:D161"/>
-    <mergeCell ref="B146:B149"/>
-    <mergeCell ref="C146:C149"/>
-    <mergeCell ref="D146:D149"/>
-    <mergeCell ref="B150:B153"/>
-    <mergeCell ref="C150:C153"/>
-    <mergeCell ref="D150:D153"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="C138:C141"/>
-    <mergeCell ref="D138:D141"/>
-    <mergeCell ref="B142:B145"/>
-    <mergeCell ref="C142:C145"/>
-    <mergeCell ref="D142:D145"/>
-    <mergeCell ref="B130:B133"/>
-    <mergeCell ref="C130:C133"/>
-    <mergeCell ref="D130:D133"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="C134:C137"/>
-    <mergeCell ref="D134:D137"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="B126:B129"/>
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="D126:D129"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="D114:D117"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="D118:D121"/>
-    <mergeCell ref="B106:B109"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="D106:D109"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="D110:D113"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="D98:D101"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="D102:D105"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="D90:D93"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="D94:D97"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="D82:D85"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="D86:D89"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="D74:D77"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="D78:D81"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="D66:D69"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="D58:D61"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="D62:D65"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="A218:A221"/>
-    <mergeCell ref="A222:A225"/>
-    <mergeCell ref="A226:A229"/>
-    <mergeCell ref="A230:A233"/>
-    <mergeCell ref="A234:A237"/>
-    <mergeCell ref="A194:A197"/>
-    <mergeCell ref="A198:A201"/>
-    <mergeCell ref="A202:A205"/>
-    <mergeCell ref="A206:A209"/>
-    <mergeCell ref="A210:A213"/>
-    <mergeCell ref="A214:A217"/>
-    <mergeCell ref="A170:A173"/>
-    <mergeCell ref="A174:A177"/>
-    <mergeCell ref="A178:A181"/>
-    <mergeCell ref="A182:A185"/>
-    <mergeCell ref="A186:A189"/>
-    <mergeCell ref="A190:A193"/>
-    <mergeCell ref="A146:A149"/>
-    <mergeCell ref="A150:A153"/>
-    <mergeCell ref="A154:A157"/>
-    <mergeCell ref="A158:A161"/>
-    <mergeCell ref="A162:A165"/>
-    <mergeCell ref="A166:A169"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="A126:A129"/>
-    <mergeCell ref="A130:A133"/>
-    <mergeCell ref="A134:A137"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="A142:A145"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="A110:A113"/>
-    <mergeCell ref="A114:A117"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A238:A241"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
